--- a/data/trans_camb/P23_DUKE_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,85</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,82</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>65,66</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>3,99</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>67,21</t>
+          <t>-1,84</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,41</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-2,55</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 1,48</t>
+          <t>-7,03; 3,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 4,77</t>
+          <t>-8,62; 2,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,17; 73,41</t>
+          <t>-1,57; 8,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 2,18</t>
+          <t>-5,42; 3,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 11,25</t>
+          <t>-5,91; 2,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>60,62; 69,64</t>
+          <t>-1,49; 6,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 0,64</t>
+          <t>-0,33; 7,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,62</t>
+          <t>-0,55; 8,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>63,46; 70,22</t>
+          <t>-6,0; 2,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-6,97; 0,21</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,51; 3,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,92</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 7,1</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 1,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-5,42; 0,23</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-20,66%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>410,5%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,74%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>-1,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>394,21%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,37%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>402,2%</t>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-3,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,62%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,04; 12,72</t>
+          <t>-8,06; 3,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 35,21</t>
+          <t>-9,92; 2,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>281,78; 560,99</t>
+          <t>-1,81; 9,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 15,5</t>
+          <t>-5,94; 3,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 73,46</t>
+          <t>-6,49; 2,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>310,55; 495,86</t>
+          <t>-1,65; 8,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 4,61</t>
+          <t>-0,36; 9,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 44,14</t>
+          <t>-0,61; 11,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>317,89; 480,69</t>
+          <t>-6,71; 3,06</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 0,18</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 4,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 4,76</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 8,65</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 2,04</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 0,27</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>7,98</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>67,93</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,89</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>66,29</t>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-5,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 8,02</t>
+          <t>2,52; 14,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 8,51</t>
+          <t>0,69; 12,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,03; 74,92</t>
+          <t>-0,81; 12,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 1,0</t>
+          <t>-0,79; 12,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 2,74</t>
+          <t>-2,55; 16,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,63; 71,06</t>
+          <t>-4,08; 5,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 3,07</t>
+          <t>-8,28; 2,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 4,06</t>
+          <t>-5,96; 4,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>60,1; 71,35</t>
+          <t>-6,98; 4,92</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,17; 1,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 8,15</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 5,19</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 6,84</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 6,73</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 5,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>440,96%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,16%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>330,17%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,42%</t>
+          <t>-3,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,54%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>376,25%</t>
+          <t>-0,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-5,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,6%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,14%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 64,26</t>
+          <t>3,03; 18,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 67,32</t>
+          <t>0,85; 16,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>263,51; 622,73</t>
+          <t>-0,78; 16,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 5,46</t>
+          <t>-0,87; 15,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 16,63</t>
+          <t>-2,83; 21,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>252,31; 444,36</t>
+          <t>-4,56; 6,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 21,0</t>
+          <t>-9,25; 2,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 25,88</t>
+          <t>-6,72; 4,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>291,45; 471,99</t>
+          <t>-7,95; 5,77</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 1,2</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 10,24</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 6,42</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 8,33</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-2,75; 8,11</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 5,98</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>7,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>12,05</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-3,91</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,56</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11,98</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>12,06</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 17,38</t>
+          <t>-5,09; 23,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 20,01</t>
+          <t>-3,38; 25,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>0,25; 28,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-12,2; 4,15</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 9,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-0,99; 18,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 15,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 21,24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 8,91</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 11,02</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 17,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 16,03</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 22,13</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,05%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>15,47%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-22,17%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>10,11%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>4,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>19,09%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>15,34%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,94; 179,1</t>
+          <t>-5,87; 35,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,0; 194,65</t>
+          <t>-4,01; 40,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>0,35; 45,01</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-55,34; 32,47</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 77,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-1,08; 26,32</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 21,14</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 29,57</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-30,85; 71,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-22,16; 91,73</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 24,84</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 22,51</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 31,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>69,12</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,88</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>64,85</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>66,94</t>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,83</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,74</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,29</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,63</t>
+          <t>-0,8; 7,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 5,51</t>
+          <t>-2,27; 6,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>63,94; 73,08</t>
+          <t>1,67; 9,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -0,41</t>
+          <t>-2,55; 4,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 5,49</t>
+          <t>-3,74; 3,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>60,97; 68,27</t>
+          <t>-0,21; 5,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 0,88</t>
+          <t>-1,81; 4,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,26</t>
+          <t>0,36; 6,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>64,11; 69,63</t>
+          <t>-5,08; 1,39</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; -0,27</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 5,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 4,04</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,88; 6,57</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 2,08</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 0,49</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,66%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>433,83%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>-0,4%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>361,42%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,16%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>394,19%</t>
+          <t>-2,31%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,32%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,88%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 27,16</t>
+          <t>-0,93; 8,79</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,31; 40,73</t>
+          <t>-2,72; 7,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>330,85; 550,68</t>
+          <t>2,0; 11,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,45; -2,56</t>
+          <t>-2,87; 5,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 31,66</t>
+          <t>-4,13; 4,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>304,85; 428,29</t>
+          <t>-0,24; 6,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 5,59</t>
+          <t>-2,09; 5,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 27,18</t>
+          <t>0,45; 7,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>340,37; 453,57</t>
+          <t>-5,76; 1,63</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-7,85; -0,34</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0,32; 6,26</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,95</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 8,01</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 2,43</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; 0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
